--- a/otros/centros de salud.xlsx
+++ b/otros/centros de salud.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21255" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$200</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$Y$200</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="822">
   <si>
     <t>csId</t>
   </si>
@@ -2443,13 +2439,61 @@
   </si>
   <si>
     <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>POSTA LA PLANTA</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>at_pobl</t>
+  </si>
+  <si>
+    <t>ba_viviend</t>
+  </si>
+  <si>
+    <t>ba_visit</t>
+  </si>
+  <si>
+    <t>ba_novist</t>
+  </si>
+  <si>
+    <t>ba_ause</t>
+  </si>
+  <si>
+    <t>ba_vacias</t>
+  </si>
+  <si>
+    <t>ba_enconst</t>
+  </si>
+  <si>
+    <t>ba_finsem</t>
+  </si>
+  <si>
+    <t>ba_baldios</t>
+  </si>
+  <si>
+    <t>ba_casamat</t>
+  </si>
+  <si>
+    <t>ba_casaado</t>
+  </si>
+  <si>
+    <t>fecha_relev</t>
+  </si>
+  <si>
+    <t>POSTA EL ALAMITO</t>
+  </si>
+  <si>
+    <t>POSTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2488,8 +2532,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2511,6 +2562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,7 +2644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2633,6 +2690,25 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2695,7 +2771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2727,10 +2803,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2762,7 +2837,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2938,7 +3012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P200"/>
   <sheetViews>
@@ -2946,7 +3020,7 @@
       <selection activeCell="A28" sqref="A28:A192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
@@ -2955,7 +3029,7 @@
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3055,7 +3129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3105,7 +3179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3155,7 +3229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3205,7 +3279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3252,7 +3326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7">
         <v>9</v>
       </c>
@@ -3302,7 +3376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3352,7 +3426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1">
       <c r="A9">
         <v>11</v>
       </c>
@@ -3402,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3449,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3496,7 +3570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3543,7 +3617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3593,7 +3667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1">
       <c r="A14">
         <v>16</v>
       </c>
@@ -3640,7 +3714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1">
       <c r="A15">
         <v>17</v>
       </c>
@@ -3690,7 +3764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1">
       <c r="A16">
         <v>18</v>
       </c>
@@ -3740,7 +3814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1">
       <c r="A17">
         <v>19</v>
       </c>
@@ -3787,7 +3861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1">
       <c r="A18">
         <v>20</v>
       </c>
@@ -3837,7 +3911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1">
       <c r="A19">
         <v>22</v>
       </c>
@@ -3887,7 +3961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1">
       <c r="A20">
         <v>23</v>
       </c>
@@ -3937,7 +4011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1">
       <c r="A21">
         <v>24</v>
       </c>
@@ -3984,7 +4058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1">
       <c r="A22">
         <v>25</v>
       </c>
@@ -4031,7 +4105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1">
       <c r="A23">
         <v>26</v>
       </c>
@@ -4081,7 +4155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1">
       <c r="A24">
         <v>27</v>
       </c>
@@ -4128,7 +4202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1">
       <c r="A25">
         <v>28</v>
       </c>
@@ -4175,7 +4249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1">
       <c r="A26">
         <v>29</v>
       </c>
@@ -4225,7 +4299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1">
       <c r="A27">
         <v>30</v>
       </c>
@@ -4272,7 +4346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>31</v>
       </c>
@@ -4322,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>32</v>
       </c>
@@ -4372,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>33</v>
       </c>
@@ -4422,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1">
       <c r="A31">
         <v>34</v>
       </c>
@@ -4469,7 +4543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1">
       <c r="A32">
         <v>35</v>
       </c>
@@ -4516,7 +4590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1">
       <c r="A33">
         <v>36</v>
       </c>
@@ -4566,7 +4640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1">
       <c r="A34">
         <v>37</v>
       </c>
@@ -4616,7 +4690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1">
       <c r="A35">
         <v>38</v>
       </c>
@@ -4663,7 +4737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1">
       <c r="A36">
         <v>40</v>
       </c>
@@ -4710,7 +4784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1">
       <c r="A37">
         <v>41</v>
       </c>
@@ -4760,7 +4834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1">
       <c r="A38">
         <v>42</v>
       </c>
@@ -4810,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39">
         <v>43</v>
       </c>
@@ -4857,7 +4931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40">
         <v>44</v>
       </c>
@@ -4907,7 +4981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1">
       <c r="A41">
         <v>45</v>
       </c>
@@ -4954,7 +5028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>46</v>
       </c>
@@ -5004,7 +5078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>47</v>
       </c>
@@ -5054,7 +5128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>48</v>
       </c>
@@ -5104,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>49</v>
       </c>
@@ -5154,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>50</v>
       </c>
@@ -5204,7 +5278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>51</v>
       </c>
@@ -5254,7 +5328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>52</v>
       </c>
@@ -5301,7 +5375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>53</v>
       </c>
@@ -5351,7 +5425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>54</v>
       </c>
@@ -5401,7 +5475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>55</v>
       </c>
@@ -5451,7 +5525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5498,7 +5572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1">
       <c r="A53">
         <v>58</v>
       </c>
@@ -5548,7 +5622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54">
         <v>59</v>
       </c>
@@ -5595,7 +5669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1">
       <c r="A55">
         <v>60</v>
       </c>
@@ -5645,7 +5719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1">
       <c r="A56">
         <v>61</v>
       </c>
@@ -5692,7 +5766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57">
         <v>62</v>
       </c>
@@ -5742,7 +5816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1">
       <c r="A58">
         <v>63</v>
       </c>
@@ -5789,7 +5863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1">
       <c r="A59">
         <v>64</v>
       </c>
@@ -5836,7 +5910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1">
       <c r="A60">
         <v>65</v>
       </c>
@@ -5883,7 +5957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1">
       <c r="A61">
         <v>66</v>
       </c>
@@ -5930,7 +6004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62">
         <v>67</v>
       </c>
@@ -5977,7 +6051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1">
       <c r="A63">
         <v>68</v>
       </c>
@@ -6027,7 +6101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1">
       <c r="A64">
         <v>69</v>
       </c>
@@ -6074,7 +6148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1">
       <c r="A65">
         <v>70</v>
       </c>
@@ -6124,7 +6198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1">
       <c r="A66">
         <v>71</v>
       </c>
@@ -6171,7 +6245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1">
       <c r="A67">
         <v>72</v>
       </c>
@@ -6218,7 +6292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1">
       <c r="A68">
         <v>73</v>
       </c>
@@ -6265,7 +6339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1">
       <c r="A69">
         <v>74</v>
       </c>
@@ -6312,7 +6386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1">
       <c r="A70">
         <v>75</v>
       </c>
@@ -6359,7 +6433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>76</v>
       </c>
@@ -6409,7 +6483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1">
       <c r="A72">
         <v>77</v>
       </c>
@@ -6459,7 +6533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1">
       <c r="A73">
         <v>78</v>
       </c>
@@ -6509,7 +6583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1">
       <c r="A74">
         <v>79</v>
       </c>
@@ -6559,7 +6633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1">
       <c r="A75">
         <v>80</v>
       </c>
@@ -6609,7 +6683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1">
       <c r="A76">
         <v>81</v>
       </c>
@@ -6659,7 +6733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1">
       <c r="A77">
         <v>82</v>
       </c>
@@ -6709,7 +6783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1">
       <c r="A78">
         <v>83</v>
       </c>
@@ -6759,7 +6833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1">
       <c r="A79">
         <v>84</v>
       </c>
@@ -6809,7 +6883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1">
       <c r="A80">
         <v>85</v>
       </c>
@@ -6859,7 +6933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1">
       <c r="A81">
         <v>86</v>
       </c>
@@ -6909,7 +6983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1">
       <c r="A82">
         <v>87</v>
       </c>
@@ -6959,7 +7033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1">
       <c r="A83">
         <v>88</v>
       </c>
@@ -7009,7 +7083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1">
       <c r="A84">
         <v>89</v>
       </c>
@@ -7059,7 +7133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1">
       <c r="A85">
         <v>90</v>
       </c>
@@ -7109,7 +7183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1">
       <c r="A86">
         <v>91</v>
       </c>
@@ -7159,7 +7233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1">
       <c r="A87">
         <v>92</v>
       </c>
@@ -7209,7 +7283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1">
       <c r="A88">
         <v>93</v>
       </c>
@@ -7259,7 +7333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7309,7 +7383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7356,7 +7430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91">
         <v>96</v>
       </c>
@@ -7406,7 +7480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1">
       <c r="A92">
         <v>97</v>
       </c>
@@ -7456,7 +7530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1">
       <c r="A93">
         <v>98</v>
       </c>
@@ -7506,7 +7580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1">
       <c r="A94">
         <v>99</v>
       </c>
@@ -7553,7 +7627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1">
       <c r="A95">
         <v>100</v>
       </c>
@@ -7603,7 +7677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1">
       <c r="A96">
         <v>101</v>
       </c>
@@ -7653,7 +7727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1">
       <c r="A97">
         <v>102</v>
       </c>
@@ -7703,7 +7777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1">
       <c r="A98">
         <v>103</v>
       </c>
@@ -7753,7 +7827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99">
         <v>105</v>
       </c>
@@ -7803,7 +7877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1">
       <c r="A100">
         <v>106</v>
       </c>
@@ -7853,7 +7927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101">
         <v>107</v>
       </c>
@@ -7903,7 +7977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102">
         <v>108</v>
       </c>
@@ -7953,7 +8027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1">
       <c r="A103">
         <v>109</v>
       </c>
@@ -8003,7 +8077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1">
       <c r="A104">
         <v>111</v>
       </c>
@@ -8053,7 +8127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105">
         <v>112</v>
       </c>
@@ -8103,7 +8177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>113</v>
       </c>
@@ -8150,7 +8224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>114</v>
       </c>
@@ -8200,7 +8274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>115</v>
       </c>
@@ -8250,7 +8324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>116</v>
       </c>
@@ -8300,7 +8374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>117</v>
       </c>
@@ -8350,7 +8424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1">
       <c r="A111">
         <v>118</v>
       </c>
@@ -8397,7 +8471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1">
       <c r="A112">
         <v>119</v>
       </c>
@@ -8444,7 +8518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113">
         <v>120</v>
       </c>
@@ -8491,7 +8565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1">
       <c r="A114">
         <v>121</v>
       </c>
@@ -8538,7 +8612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1">
       <c r="A115">
         <v>122</v>
       </c>
@@ -8585,7 +8659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1">
       <c r="A116">
         <v>123</v>
       </c>
@@ -8632,7 +8706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1">
       <c r="A117">
         <v>124</v>
       </c>
@@ -8679,7 +8753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1">
       <c r="A118">
         <v>125</v>
       </c>
@@ -8726,7 +8800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1">
       <c r="A119">
         <v>126</v>
       </c>
@@ -8773,7 +8847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1">
       <c r="A120">
         <v>127</v>
       </c>
@@ -8820,7 +8894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1">
       <c r="A121">
         <v>128</v>
       </c>
@@ -8867,7 +8941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1">
       <c r="A122">
         <v>129</v>
       </c>
@@ -8914,7 +8988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1">
       <c r="A123">
         <v>130</v>
       </c>
@@ -8961,7 +9035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1">
       <c r="A124">
         <v>131</v>
       </c>
@@ -9008,7 +9082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1">
       <c r="A125">
         <v>132</v>
       </c>
@@ -9058,7 +9132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" hidden="1">
       <c r="A126">
         <v>133</v>
       </c>
@@ -9108,7 +9182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1">
       <c r="A127">
         <v>134</v>
       </c>
@@ -9155,7 +9229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1">
       <c r="A128">
         <v>135</v>
       </c>
@@ -9205,7 +9279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1">
       <c r="A129">
         <v>136</v>
       </c>
@@ -9252,7 +9326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1">
       <c r="A130">
         <v>137</v>
       </c>
@@ -9299,7 +9373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1">
       <c r="A131">
         <v>138</v>
       </c>
@@ -9346,7 +9420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1">
       <c r="A132">
         <v>139</v>
       </c>
@@ -9393,7 +9467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1">
       <c r="A133">
         <v>140</v>
       </c>
@@ -9440,7 +9514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" hidden="1">
       <c r="A134">
         <v>141</v>
       </c>
@@ -9487,7 +9561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1">
       <c r="A135">
         <v>142</v>
       </c>
@@ -9534,7 +9608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1">
       <c r="A136">
         <v>143</v>
       </c>
@@ -9581,7 +9655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1">
       <c r="A137">
         <v>144</v>
       </c>
@@ -9628,7 +9702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" hidden="1">
       <c r="A138">
         <v>145</v>
       </c>
@@ -9675,7 +9749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1">
       <c r="A139">
         <v>146</v>
       </c>
@@ -9722,7 +9796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" hidden="1">
       <c r="A140">
         <v>147</v>
       </c>
@@ -9769,7 +9843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" hidden="1">
       <c r="A141">
         <v>148</v>
       </c>
@@ -9816,7 +9890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1">
       <c r="A142">
         <v>149</v>
       </c>
@@ -9866,7 +9940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1">
       <c r="A143">
         <v>150</v>
       </c>
@@ -9913,7 +9987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" hidden="1">
       <c r="A144">
         <v>151</v>
       </c>
@@ -9963,7 +10037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1">
       <c r="A145">
         <v>152</v>
       </c>
@@ -10010,7 +10084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1">
       <c r="A146">
         <v>153</v>
       </c>
@@ -10057,7 +10131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1">
       <c r="A147">
         <v>154</v>
       </c>
@@ -10104,7 +10178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1">
       <c r="A148">
         <v>155</v>
       </c>
@@ -10151,7 +10225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1">
       <c r="A149">
         <v>156</v>
       </c>
@@ -10201,7 +10275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1">
       <c r="A150">
         <v>157</v>
       </c>
@@ -10251,7 +10325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1">
       <c r="A151">
         <v>158</v>
       </c>
@@ -10301,7 +10375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1">
       <c r="A152">
         <v>159</v>
       </c>
@@ -10348,7 +10422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1">
       <c r="A153">
         <v>160</v>
       </c>
@@ -10395,7 +10469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1">
       <c r="A154">
         <v>161</v>
       </c>
@@ -10442,7 +10516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1">
       <c r="A155">
         <v>162</v>
       </c>
@@ -10489,7 +10563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1">
       <c r="A156">
         <v>163</v>
       </c>
@@ -10539,7 +10613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1">
       <c r="A157">
         <v>171</v>
       </c>
@@ -10586,7 +10660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1">
       <c r="A158">
         <v>172</v>
       </c>
@@ -10633,7 +10707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159">
         <v>173</v>
       </c>
@@ -10680,7 +10754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160">
         <v>248</v>
       </c>
@@ -10730,7 +10804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1">
       <c r="A161">
         <v>249</v>
       </c>
@@ -10780,7 +10854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1">
       <c r="A162">
         <v>250</v>
       </c>
@@ -10830,7 +10904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1">
       <c r="A163">
         <v>251</v>
       </c>
@@ -10880,7 +10954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1">
       <c r="A164">
         <v>252</v>
       </c>
@@ -10930,7 +11004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1">
       <c r="A165">
         <v>253</v>
       </c>
@@ -10980,7 +11054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1">
       <c r="A166">
         <v>254</v>
       </c>
@@ -11030,7 +11104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1">
       <c r="A167">
         <v>255</v>
       </c>
@@ -11080,7 +11154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1">
       <c r="A168">
         <v>256</v>
       </c>
@@ -11127,7 +11201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1">
       <c r="A169">
         <v>257</v>
       </c>
@@ -11174,7 +11248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1">
       <c r="A170">
         <v>258</v>
       </c>
@@ -11224,7 +11298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1">
       <c r="A171">
         <v>259</v>
       </c>
@@ -11274,7 +11348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1">
       <c r="A172">
         <v>260</v>
       </c>
@@ -11321,7 +11395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1">
       <c r="A173">
         <v>366</v>
       </c>
@@ -11368,7 +11442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1">
       <c r="A174">
         <v>418</v>
       </c>
@@ -11415,7 +11489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1">
       <c r="A175">
         <v>419</v>
       </c>
@@ -11462,7 +11536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1">
       <c r="A176">
         <v>423</v>
       </c>
@@ -11509,7 +11583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1">
       <c r="A177">
         <v>434</v>
       </c>
@@ -11556,7 +11630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1">
       <c r="A178">
         <v>447</v>
       </c>
@@ -11603,7 +11677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1">
       <c r="A179">
         <v>448</v>
       </c>
@@ -11650,7 +11724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1">
       <c r="A180">
         <v>452</v>
       </c>
@@ -11697,7 +11771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1">
       <c r="A181">
         <v>465</v>
       </c>
@@ -11747,7 +11821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1">
       <c r="A182">
         <v>466</v>
       </c>
@@ -11797,7 +11871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1">
       <c r="A183">
         <v>468</v>
       </c>
@@ -11847,7 +11921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1">
       <c r="A184">
         <v>469</v>
       </c>
@@ -11897,7 +11971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1">
       <c r="A185">
         <v>470</v>
       </c>
@@ -11947,7 +12021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1">
       <c r="A186">
         <v>472</v>
       </c>
@@ -11997,7 +12071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1">
       <c r="A187">
         <v>473</v>
       </c>
@@ -12047,7 +12121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1">
       <c r="A188">
         <v>474</v>
       </c>
@@ -12097,7 +12171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1">
       <c r="A189">
         <v>475</v>
       </c>
@@ -12147,7 +12221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190">
         <v>476</v>
       </c>
@@ -12194,7 +12268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1">
       <c r="A191">
         <v>477</v>
       </c>
@@ -12241,7 +12315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192">
         <v>478</v>
       </c>
@@ -12291,7 +12365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1">
       <c r="A193">
         <v>479</v>
       </c>
@@ -12341,7 +12415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1">
       <c r="A194">
         <v>481</v>
       </c>
@@ -12391,7 +12465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1">
       <c r="A195">
         <v>507</v>
       </c>
@@ -12441,7 +12515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1">
       <c r="A196">
         <v>521</v>
       </c>
@@ -12491,7 +12565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1">
       <c r="A197">
         <v>524</v>
       </c>
@@ -12541,7 +12615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1">
       <c r="A198">
         <v>525</v>
       </c>
@@ -12591,7 +12665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1">
       <c r="A199">
         <v>526</v>
       </c>
@@ -12641,7 +12715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1">
       <c r="A200">
         <v>530</v>
       </c>
@@ -12704,16 +12778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3">
         <v>31</v>
       </c>
@@ -12721,7 +12795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>32</v>
       </c>
@@ -12729,7 +12803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>33</v>
       </c>
@@ -12737,7 +12811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="7">
         <v>46</v>
       </c>
@@ -12745,7 +12819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8">
         <v>47</v>
       </c>
@@ -12753,7 +12827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>48</v>
       </c>
@@ -12761,7 +12835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>49</v>
       </c>
@@ -12769,7 +12843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>50</v>
       </c>
@@ -12777,7 +12851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>51</v>
       </c>
@@ -12785,7 +12859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>52</v>
       </c>
@@ -12793,7 +12867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>53</v>
       </c>
@@ -12801,7 +12875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="4">
         <v>54</v>
       </c>
@@ -12809,7 +12883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="8">
         <v>55</v>
       </c>
@@ -12817,12 +12891,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>76</v>
       </c>
@@ -12830,7 +12904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="6">
         <v>113</v>
       </c>
@@ -12838,7 +12912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="4">
         <v>114</v>
       </c>
@@ -12846,7 +12920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5">
         <v>115</v>
       </c>
@@ -12854,7 +12928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>116</v>
       </c>
@@ -12862,7 +12936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>117</v>
       </c>
@@ -12870,30 +12944,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="3"/>
       <c r="C21">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="C22">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="C24">
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>478</v>
       </c>
@@ -12901,13 +12975,13 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="7"/>
     </row>
   </sheetData>
@@ -12919,15 +12993,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
@@ -12941,7 +13015,7 @@
     <col min="16" max="16" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -13016,7 +13090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" hidden="1">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -13087,7 +13161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -13152,7 +13226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" hidden="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -13223,7 +13297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" hidden="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13297,7 +13371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" hidden="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13368,7 +13442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" hidden="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -13439,7 +13513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" hidden="1">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -13507,7 +13581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" hidden="1">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -13578,7 +13652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" hidden="1">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -13646,7 +13720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" hidden="1">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -13711,7 +13785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" hidden="1">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -13776,7 +13850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" hidden="1">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -13841,7 +13915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" hidden="1">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -13906,7 +13980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" hidden="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -13971,7 +14045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" hidden="1">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -14036,7 +14110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" hidden="1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -14101,7 +14175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" hidden="1">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -14166,7 +14240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A19">
         <v>1</v>
       </c>
@@ -14240,7 +14314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A20" s="15">
         <v>1</v>
       </c>
@@ -14311,7 +14385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A21">
         <v>1</v>
       </c>
@@ -14385,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A22">
         <v>1</v>
       </c>
@@ -14459,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A23">
         <v>1</v>
       </c>
@@ -14533,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A24">
         <v>1</v>
       </c>
@@ -14607,7 +14681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A25">
         <v>1</v>
       </c>
@@ -14681,7 +14755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A26">
         <v>1</v>
       </c>
@@ -14755,7 +14829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A27">
         <v>1</v>
       </c>
@@ -14829,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A28">
         <v>1</v>
       </c>
@@ -14903,7 +14977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A29">
         <v>1</v>
       </c>
@@ -14977,7 +15051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A30">
         <v>1</v>
       </c>
@@ -15045,7 +15119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A31">
         <v>1</v>
       </c>
@@ -15119,7 +15193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A32">
         <v>1</v>
       </c>
@@ -15193,7 +15267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A33">
         <v>1</v>
       </c>
@@ -15267,7 +15341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A34">
         <v>1</v>
       </c>
@@ -15341,7 +15415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A35">
         <v>1</v>
       </c>
@@ -15415,7 +15489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A36">
         <v>1</v>
       </c>
@@ -15483,7 +15557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A37">
         <v>1</v>
       </c>
@@ -15557,7 +15631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A38">
         <v>1</v>
       </c>
@@ -15625,7 +15699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A39">
         <v>1</v>
       </c>
@@ -15699,7 +15773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A40">
         <v>1</v>
       </c>
@@ -15773,7 +15847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="18.75" hidden="1" customHeight="1">
       <c r="A41">
         <v>1</v>
       </c>
@@ -15847,7 +15921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15" hidden="1">
       <c r="A42">
         <v>2</v>
       </c>
@@ -15921,7 +15995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" hidden="1">
       <c r="A43">
         <v>2</v>
       </c>
@@ -15992,7 +16066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15" hidden="1">
       <c r="A44">
         <v>2</v>
       </c>
@@ -16066,7 +16140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15" hidden="1">
       <c r="A45">
         <v>2</v>
       </c>
@@ -16137,7 +16211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15" hidden="1">
       <c r="A46">
         <v>2</v>
       </c>
@@ -16208,7 +16282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15" hidden="1">
       <c r="A47">
         <v>2</v>
       </c>
@@ -16279,7 +16353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15" hidden="1">
       <c r="A48">
         <v>2</v>
       </c>
@@ -16350,7 +16424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15" hidden="1">
       <c r="A49">
         <v>2</v>
       </c>
@@ -16424,7 +16498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15" hidden="1">
       <c r="A50">
         <v>2</v>
       </c>
@@ -16498,7 +16572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15" hidden="1">
       <c r="A51">
         <v>2</v>
       </c>
@@ -16572,519 +16646,519 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:25" s="19" customFormat="1" ht="15">
+      <c r="A52" s="19">
         <v>2</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="20">
         <v>26</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="19">
         <v>300</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="22">
         <v>-31425075</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="22">
         <v>-68445578</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
+      <c r="Q52" s="19">
+        <v>1</v>
+      </c>
+      <c r="R52" s="19">
         <v>2</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="19">
         <v>1400032</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="19">
         <v>11844</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="19">
         <v>300</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="19">
         <v>559</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="19">
         <v>554</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="19">
         <v>1113</v>
       </c>
-      <c r="Y52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="Y52" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="19" customFormat="1" ht="15">
+      <c r="A53" s="19">
         <v>2</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="20">
         <v>27</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="19">
         <v>80</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="22">
         <v>-31443089</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="22">
         <v>-68283014</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="R53">
+      <c r="Q53" s="19">
+        <v>1</v>
+      </c>
+      <c r="R53" s="19">
         <v>2</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="19">
         <v>1400023</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="19">
         <v>80</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="19">
         <v>154</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="19">
         <v>158</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="19">
         <v>312</v>
       </c>
-      <c r="Y53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="Y53" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="19" customFormat="1" ht="15">
+      <c r="A54" s="19">
         <v>2</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="20">
         <v>251</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="19">
         <v>530</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="22">
         <v>-314075</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="22">
         <v>-683836</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54">
+      <c r="Q54" s="19">
+        <v>1</v>
+      </c>
+      <c r="R54" s="19">
         <v>2</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="19">
         <v>1400031</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="19">
         <v>4928</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="19">
         <v>530</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="19">
         <v>1067</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="19">
         <v>1221</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="19">
         <v>2288</v>
       </c>
-      <c r="Y54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="Y54" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="19" customFormat="1" ht="15">
+      <c r="A55" s="19">
         <v>2</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="20">
         <v>5</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="19">
         <v>1043</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="22">
         <v>-31451138</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" s="20">
         <v>4972018</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="22">
         <v>-68403104</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P55" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55">
+      <c r="Q55" s="19">
+        <v>1</v>
+      </c>
+      <c r="R55" s="19">
         <v>2</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="19">
         <v>1400015</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="19">
         <v>3274</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="19">
         <v>1043</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="19">
         <v>2340</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="19">
         <v>2400</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="19">
         <v>4740</v>
       </c>
-      <c r="Y55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="Y55" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A56" s="19">
         <v>2</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="20">
         <v>35</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="19">
         <v>217</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="22">
         <v>-3161591666666</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="22">
         <v>-6765105555555</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P56" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56">
+      <c r="Q56" s="19">
+        <v>1</v>
+      </c>
+      <c r="R56" s="19">
         <v>2</v>
       </c>
-      <c r="S56" t="s">
-        <v>19</v>
-      </c>
-      <c r="U56">
+      <c r="S56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U56" s="19">
         <v>217</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="19">
         <v>419</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="19">
         <v>346</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="19">
         <v>765</v>
       </c>
-      <c r="Y56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="Y56" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A57" s="19">
         <v>2</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="20">
         <v>36</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="19">
         <v>553</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="22">
         <v>-316240422270494</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="22">
         <v>-6831481218338010</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
+      <c r="Q57" s="19">
+        <v>1</v>
+      </c>
+      <c r="R57" s="19">
         <v>2</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="19">
         <v>3500068</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="19">
         <v>3277</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="19">
         <v>553</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="19">
         <v>965</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="19">
         <v>954</v>
       </c>
-      <c r="X57">
+      <c r="X57" s="19">
         <v>1919</v>
       </c>
-      <c r="Y57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="Y57" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A58" s="19">
         <v>2</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="20">
         <v>37</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="19">
         <v>459</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="22">
         <v>-3.16652898038685E+16</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="22">
         <v>-683063793182373</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="R58">
+      <c r="Q58" s="19">
+        <v>1</v>
+      </c>
+      <c r="R58" s="19">
         <v>2</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="19">
         <v>3500220</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="19">
         <v>4932</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="19">
         <v>459</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="19">
         <v>968</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="19">
         <v>967</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="19">
         <v>1935</v>
       </c>
-      <c r="Y58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15" hidden="1">
       <c r="A59">
         <v>2</v>
       </c>
@@ -17107,7 +17181,7 @@
         <v>580</v>
       </c>
       <c r="I59" t="s">
-        <v>125</v>
+        <v>806</v>
       </c>
       <c r="K59" s="2">
         <v>-3.14907487647523E+16</v>
@@ -17152,538 +17226,539 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A60" s="19">
         <v>2</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="20">
         <v>40</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="19">
         <v>118</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="22">
         <v>-314620555555</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="22">
         <v>-6735386111111</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="P60" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="R60">
+      <c r="Q60" s="19">
+        <v>1</v>
+      </c>
+      <c r="R60" s="19">
         <v>2</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="19">
         <v>3500033</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="19">
         <v>118</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="19">
         <v>215</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="19">
         <v>186</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="19">
         <v>401</v>
       </c>
-      <c r="Y60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="Y60" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A61" s="19">
         <v>2</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="20">
         <v>41</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="19">
         <v>432</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="22">
         <v>-3.16614042154957E+16</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="22">
         <v>-6822389602661130</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
+      <c r="Q61" s="19">
+        <v>1</v>
+      </c>
+      <c r="R61" s="19">
         <v>2</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="19">
         <v>3500041</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="19">
         <v>4933</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="19">
         <v>432</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="19">
         <v>909</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="19">
         <v>943</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="19">
         <v>1852</v>
       </c>
-      <c r="Y61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="Y61" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A62" s="19">
         <v>2</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="20">
         <v>42</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="19">
         <v>114</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="22">
         <v>-31684716</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="22">
         <v>-68263787</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
+      <c r="Q62" s="19">
+        <v>1</v>
+      </c>
+      <c r="R62" s="19">
         <v>2</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="19">
         <v>3500050</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="19">
         <v>4934</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="19">
         <v>114</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="19">
         <v>236</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="19">
         <v>201</v>
       </c>
-      <c r="X62">
+      <c r="X62" s="19">
         <v>437</v>
       </c>
-      <c r="Y62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="Y62" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A63" s="19">
         <v>2</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="20">
         <v>43</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="19">
         <v>403</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="22">
         <v>-31591778</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="22">
         <v>-68305321</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="P63" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="R63">
+      <c r="Q63" s="19">
+        <v>1</v>
+      </c>
+      <c r="R63" s="19">
         <v>2</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="19">
         <v>3500254</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="19">
         <v>403</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="19">
         <v>754</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="19">
         <v>764</v>
       </c>
-      <c r="X63">
+      <c r="X63" s="19">
         <v>1518</v>
       </c>
-      <c r="Y63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="Y63" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A64" s="19">
         <v>2</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="20">
         <v>44</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="19">
         <v>119</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="22">
         <v>-3.17451024152338E+16</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="22">
         <v>-6798545837402340</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="P64" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
+      <c r="Q64" s="19">
+        <v>1</v>
+      </c>
+      <c r="R64" s="19">
         <v>2</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="19">
         <v>3500076</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="19">
         <v>4935</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="19">
         <v>119</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="19">
         <v>216</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="19">
         <v>186</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="19">
         <v>402</v>
       </c>
-      <c r="Y64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="Y64" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A65" s="19">
         <v>2</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="20">
         <v>45</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="19">
         <v>181</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="22">
         <v>-3162962</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="22">
         <v>-68240725</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="P65" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-      <c r="R65">
+      <c r="Q65" s="19">
+        <v>1</v>
+      </c>
+      <c r="R65" s="19">
         <v>2</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="19">
         <v>3500246</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="19">
         <v>181</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="19">
         <v>352</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="19">
         <v>351</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="19">
         <v>703</v>
       </c>
-      <c r="Y65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="Y65" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+      <c r="A66" s="19">
         <v>2</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="20">
         <v>9</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="19">
         <v>7081</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="22">
         <v>-31650537</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="22">
         <v>-68273837</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="P66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="R66">
+      <c r="Q66" s="19">
+        <v>1</v>
+      </c>
+      <c r="R66" s="19">
         <v>2</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="19">
         <v>3500025</v>
       </c>
-      <c r="T66" t="s">
-        <v>19</v>
-      </c>
-      <c r="U66">
+      <c r="T66" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U66" s="19">
         <v>7081</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="19">
         <v>13740</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="19">
         <v>14404</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="19">
         <v>28144</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:25" ht="15" hidden="1">
+      <c r="A67" s="23">
         <v>2</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="24">
         <v>423</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="D67" s="23">
+        <v>0</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="23" t="s">
         <v>519</v>
       </c>
       <c r="K67" s="2">
@@ -17729,7 +17804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15" hidden="1">
       <c r="A68">
         <v>2</v>
       </c>
@@ -17803,7 +17878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15" hidden="1">
       <c r="A69">
         <v>2</v>
       </c>
@@ -17877,7 +17952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15" hidden="1">
       <c r="A70">
         <v>2</v>
       </c>
@@ -17951,7 +18026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15" hidden="1">
       <c r="A71">
         <v>2</v>
       </c>
@@ -18025,7 +18100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15" hidden="1">
       <c r="A72">
         <v>2</v>
       </c>
@@ -18099,7 +18174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15" hidden="1">
       <c r="A73">
         <v>2</v>
       </c>
@@ -18170,7 +18245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15" hidden="1">
       <c r="A74">
         <v>2</v>
       </c>
@@ -18244,7 +18319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15" hidden="1">
       <c r="A75">
         <v>2</v>
       </c>
@@ -18315,7 +18390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15" hidden="1">
       <c r="A76">
         <v>2</v>
       </c>
@@ -18386,7 +18461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15" hidden="1">
       <c r="A77">
         <v>2</v>
       </c>
@@ -18457,7 +18532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15" hidden="1">
       <c r="A78">
         <v>2</v>
       </c>
@@ -18528,7 +18603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15" hidden="1">
       <c r="A79">
         <v>2</v>
       </c>
@@ -18599,7 +18674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15" hidden="1">
       <c r="A80">
         <v>2</v>
       </c>
@@ -18670,7 +18745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15" hidden="1">
       <c r="A81">
         <v>2</v>
       </c>
@@ -18741,7 +18816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15" hidden="1">
       <c r="A82">
         <v>2</v>
       </c>
@@ -18812,7 +18887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15" hidden="1">
       <c r="A83">
         <v>2</v>
       </c>
@@ -18883,7 +18958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15" hidden="1">
       <c r="A84">
         <v>2</v>
       </c>
@@ -18954,7 +19029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15" hidden="1">
       <c r="A85">
         <v>2</v>
       </c>
@@ -19025,7 +19100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15" hidden="1">
       <c r="A86">
         <v>2</v>
       </c>
@@ -19096,7 +19171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15" hidden="1">
       <c r="A87">
         <v>2</v>
       </c>
@@ -19167,7 +19242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15" hidden="1">
       <c r="A88">
         <v>2</v>
       </c>
@@ -19241,7 +19316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15" hidden="1">
       <c r="A89">
         <v>3</v>
       </c>
@@ -19315,7 +19390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15" hidden="1">
       <c r="A90">
         <v>3</v>
       </c>
@@ -19389,7 +19464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15" hidden="1">
       <c r="A91">
         <v>3</v>
       </c>
@@ -19463,7 +19538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15" hidden="1">
       <c r="A92">
         <v>3</v>
       </c>
@@ -19534,7 +19609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15" hidden="1">
       <c r="A93">
         <v>3</v>
       </c>
@@ -19608,7 +19683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15" hidden="1">
       <c r="A94">
         <v>3</v>
       </c>
@@ -19682,7 +19757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15" hidden="1">
       <c r="A95">
         <v>3</v>
       </c>
@@ -19756,7 +19831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15" hidden="1">
       <c r="A96">
         <v>3</v>
       </c>
@@ -19827,7 +19902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15" hidden="1">
       <c r="A97">
         <v>3</v>
       </c>
@@ -19901,7 +19976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15" hidden="1">
       <c r="A98">
         <v>3</v>
       </c>
@@ -19972,7 +20047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15" hidden="1">
       <c r="A99">
         <v>3</v>
       </c>
@@ -20046,7 +20121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" hidden="1">
       <c r="A100">
         <v>3</v>
       </c>
@@ -20117,7 +20192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15" hidden="1">
       <c r="A101">
         <v>3</v>
       </c>
@@ -20191,7 +20266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15" hidden="1">
       <c r="A102">
         <v>3</v>
       </c>
@@ -20265,7 +20340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15" hidden="1">
       <c r="A103">
         <v>3</v>
       </c>
@@ -20333,7 +20408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15" hidden="1">
       <c r="A104">
         <v>3</v>
       </c>
@@ -20401,7 +20476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15" hidden="1">
       <c r="A105">
         <v>3</v>
       </c>
@@ -20469,7 +20544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15" hidden="1">
       <c r="A106">
         <v>3</v>
       </c>
@@ -20540,7 +20615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15" hidden="1">
       <c r="A107">
         <v>3</v>
       </c>
@@ -20611,7 +20686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15" hidden="1">
       <c r="A108">
         <v>3</v>
       </c>
@@ -20685,7 +20760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15" hidden="1">
       <c r="A109">
         <v>3</v>
       </c>
@@ -20753,7 +20828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" hidden="1">
       <c r="A110">
         <v>3</v>
       </c>
@@ -20827,7 +20902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15" hidden="1">
       <c r="A111">
         <v>3</v>
       </c>
@@ -20898,7 +20973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15" hidden="1">
       <c r="A112">
         <v>3</v>
       </c>
@@ -20969,7 +21044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15" hidden="1">
       <c r="A113">
         <v>3</v>
       </c>
@@ -21040,7 +21115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15" hidden="1">
       <c r="A114">
         <v>3</v>
       </c>
@@ -21108,7 +21183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15" hidden="1">
       <c r="A115">
         <v>3</v>
       </c>
@@ -21179,7 +21254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15" hidden="1">
       <c r="A116">
         <v>3</v>
       </c>
@@ -21253,7 +21328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15" hidden="1">
       <c r="A117">
         <v>3</v>
       </c>
@@ -21324,7 +21399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15" hidden="1">
       <c r="A118">
         <v>4</v>
       </c>
@@ -21395,7 +21470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15" hidden="1">
       <c r="A119">
         <v>4</v>
       </c>
@@ -21466,7 +21541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15" hidden="1">
       <c r="A120">
         <v>4</v>
       </c>
@@ -21540,7 +21615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15" hidden="1">
       <c r="A121">
         <v>4</v>
       </c>
@@ -21611,7 +21686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15" hidden="1">
       <c r="A122">
         <v>4</v>
       </c>
@@ -21685,7 +21760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15" hidden="1">
       <c r="A123">
         <v>4</v>
       </c>
@@ -21759,7 +21834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15" hidden="1">
       <c r="A124">
         <v>4</v>
       </c>
@@ -21830,7 +21905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15" hidden="1">
       <c r="A125">
         <v>4</v>
       </c>
@@ -21901,7 +21976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15" hidden="1">
       <c r="A126">
         <v>4</v>
       </c>
@@ -21969,7 +22044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15" hidden="1">
       <c r="A127">
         <v>4</v>
       </c>
@@ -22043,7 +22118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15" hidden="1">
       <c r="A128">
         <v>4</v>
       </c>
@@ -22117,7 +22192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15" hidden="1">
       <c r="A129">
         <v>4</v>
       </c>
@@ -22191,7 +22266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15" hidden="1">
       <c r="A130">
         <v>4</v>
       </c>
@@ -22265,7 +22340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15" hidden="1">
       <c r="A131">
         <v>4</v>
       </c>
@@ -22339,7 +22414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15" hidden="1">
       <c r="A132">
         <v>4</v>
       </c>
@@ -22413,7 +22488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15" hidden="1">
       <c r="A133">
         <v>4</v>
       </c>
@@ -22487,7 +22562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15" hidden="1">
       <c r="A134">
         <v>4</v>
       </c>
@@ -22561,7 +22636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15" hidden="1">
       <c r="A135">
         <v>4</v>
       </c>
@@ -22635,7 +22710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15" hidden="1">
       <c r="A136">
         <v>4</v>
       </c>
@@ -22709,7 +22784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15" hidden="1">
       <c r="A137">
         <v>4</v>
       </c>
@@ -22780,7 +22855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15" hidden="1">
       <c r="A138">
         <v>4</v>
       </c>
@@ -22851,7 +22926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15" hidden="1">
       <c r="A139">
         <v>4</v>
       </c>
@@ -22925,7 +23000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15" hidden="1">
       <c r="A140">
         <v>4</v>
       </c>
@@ -22999,7 +23074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15" hidden="1">
       <c r="A141">
         <v>4</v>
       </c>
@@ -23073,7 +23148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15" hidden="1">
       <c r="A142">
         <v>4</v>
       </c>
@@ -23147,7 +23222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15" hidden="1">
       <c r="A143">
         <v>5</v>
       </c>
@@ -23221,7 +23296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15" hidden="1">
       <c r="A144">
         <v>5</v>
       </c>
@@ -23295,7 +23370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15" hidden="1">
       <c r="A145">
         <v>5</v>
       </c>
@@ -23369,7 +23444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15" hidden="1">
       <c r="A146">
         <v>5</v>
       </c>
@@ -23443,7 +23518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15" hidden="1">
       <c r="A147">
         <v>5</v>
       </c>
@@ -23517,7 +23592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15" hidden="1">
       <c r="A148">
         <v>5</v>
       </c>
@@ -23591,7 +23666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15" hidden="1">
       <c r="A149">
         <v>5</v>
       </c>
@@ -23665,7 +23740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15" hidden="1">
       <c r="A150">
         <v>5</v>
       </c>
@@ -23739,7 +23814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15" hidden="1">
       <c r="A151">
         <v>5</v>
       </c>
@@ -23813,7 +23888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15" hidden="1">
       <c r="A152">
         <v>5</v>
       </c>
@@ -23887,7 +23962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15" hidden="1">
       <c r="A153">
         <v>5</v>
       </c>
@@ -23961,7 +24036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15" hidden="1">
       <c r="A154">
         <v>5</v>
       </c>
@@ -24032,7 +24107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15" hidden="1">
       <c r="A155">
         <v>5</v>
       </c>
@@ -24106,7 +24181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15" hidden="1">
       <c r="A156">
         <v>5</v>
       </c>
@@ -24180,7 +24255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15" hidden="1">
       <c r="A157">
         <v>5</v>
       </c>
@@ -24254,7 +24329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15" hidden="1">
       <c r="A158">
         <v>5</v>
       </c>
@@ -24328,7 +24403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15" hidden="1">
       <c r="A159">
         <v>5</v>
       </c>
@@ -24402,7 +24477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15" hidden="1">
       <c r="A160">
         <v>5</v>
       </c>
@@ -24476,7 +24551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15" hidden="1">
       <c r="A161">
         <v>5</v>
       </c>
@@ -24550,7 +24625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15" hidden="1">
       <c r="A162">
         <v>5</v>
       </c>
@@ -24624,7 +24699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15" hidden="1">
       <c r="A163">
         <v>5</v>
       </c>
@@ -24698,7 +24773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15" hidden="1">
       <c r="A164">
         <v>5</v>
       </c>
@@ -24766,7 +24841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15" hidden="1">
       <c r="A165">
         <v>5</v>
       </c>
@@ -24840,7 +24915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15" hidden="1">
       <c r="A166">
         <v>5</v>
       </c>
@@ -24914,7 +24989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15" hidden="1">
       <c r="A167">
         <v>5</v>
       </c>
@@ -24988,7 +25063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15" hidden="1">
       <c r="A168">
         <v>5</v>
       </c>
@@ -25059,7 +25134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15" hidden="1">
       <c r="A169">
         <v>5</v>
       </c>
@@ -25130,7 +25205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15" hidden="1">
       <c r="A170">
         <v>5</v>
       </c>
@@ -25201,7 +25276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15" hidden="1">
       <c r="A171">
         <v>5</v>
       </c>
@@ -25269,7 +25344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15" hidden="1">
       <c r="A172">
         <v>5</v>
       </c>
@@ -25340,7 +25415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15" hidden="1">
       <c r="A173">
         <v>5</v>
       </c>
@@ -25411,7 +25486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15" hidden="1">
       <c r="A174">
         <v>5</v>
       </c>
@@ -25482,7 +25557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15" hidden="1">
       <c r="A175">
         <v>5</v>
       </c>
@@ -25553,7 +25628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15" hidden="1">
       <c r="A176">
         <v>5</v>
       </c>
@@ -25624,7 +25699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15" hidden="1">
       <c r="A177">
         <v>5</v>
       </c>
@@ -25695,7 +25770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15" hidden="1">
       <c r="A178">
         <v>5</v>
       </c>
@@ -25766,7 +25841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15" hidden="1">
       <c r="A179">
         <v>5</v>
       </c>
@@ -25837,7 +25912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15" hidden="1">
       <c r="A180">
         <v>5</v>
       </c>
@@ -25908,7 +25983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15" hidden="1">
       <c r="A181">
         <v>5</v>
       </c>
@@ -25979,7 +26054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15" hidden="1">
       <c r="A182">
         <v>5</v>
       </c>
@@ -26050,7 +26125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15" hidden="1">
       <c r="A183">
         <v>5</v>
       </c>
@@ -26121,7 +26196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15" hidden="1">
       <c r="A184">
         <v>5</v>
       </c>
@@ -26195,7 +26270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15" hidden="1">
       <c r="A185">
         <v>8</v>
       </c>
@@ -26263,7 +26338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15" hidden="1">
       <c r="A186">
         <v>9</v>
       </c>
@@ -26334,7 +26409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15" hidden="1">
       <c r="A187">
         <v>9</v>
       </c>
@@ -26405,7 +26480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15" hidden="1">
       <c r="A188">
         <v>9</v>
       </c>
@@ -26479,7 +26554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15" hidden="1">
       <c r="A189">
         <v>9</v>
       </c>
@@ -26553,7 +26628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15" hidden="1">
       <c r="A190">
         <v>9</v>
       </c>
@@ -26624,7 +26699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15" hidden="1">
       <c r="A191">
         <v>9</v>
       </c>
@@ -26695,7 +26770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15" hidden="1">
       <c r="A192">
         <v>9</v>
       </c>
@@ -26769,7 +26844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15" hidden="1">
       <c r="A193">
         <v>9</v>
       </c>
@@ -26843,7 +26918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15" hidden="1">
       <c r="A194">
         <v>9</v>
       </c>
@@ -26917,7 +26992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15" hidden="1">
       <c r="A195">
         <v>9</v>
       </c>
@@ -26991,7 +27066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15" hidden="1">
       <c r="A196">
         <v>9</v>
       </c>
@@ -27065,7 +27140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15" hidden="1">
       <c r="A197">
         <v>9</v>
       </c>
@@ -27136,7 +27211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15" hidden="1">
       <c r="A198">
         <v>9</v>
       </c>
@@ -27210,7 +27285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15" hidden="1">
       <c r="A199">
         <v>9</v>
       </c>
@@ -27281,7 +27356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15" hidden="1">
       <c r="A200">
         <v>10</v>
       </c>
@@ -27348,16 +27423,218 @@
       <c r="Y200" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="201" spans="1:25" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B201" s="28"/>
+      <c r="C201" s="29"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="H201" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="I201" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="K201" s="28"/>
+      <c r="L201" s="28"/>
+      <c r="M201" s="28"/>
+      <c r="N201" s="28"/>
+      <c r="O201" s="28"/>
+      <c r="P201" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y200">
     <filterColumn colId="7">
       <filters>
-        <filter val="25 de Mayo"/>
+        <filter val="Angaco"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" t="s">
+        <v>815</v>
+      </c>
+      <c r="J1" t="s">
+        <v>816</v>
+      </c>
+      <c r="K1" t="s">
+        <v>817</v>
+      </c>
+      <c r="L1" t="s">
+        <v>818</v>
+      </c>
+      <c r="M1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2">
+        <v>378</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>663</v>
+      </c>
+      <c r="B3">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="26">
+        <v>48</v>
+      </c>
+      <c r="L3" s="26">
+        <v>4</v>
+      </c>
+      <c r="M3" s="27">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>662</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <v>42614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/otros/centros de salud.xlsx
+++ b/otros/centros de salud.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyecto\areas programaticas msp\qgis\otros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="9975" activeTab="2"/>
   </bookViews>
@@ -14,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$200</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$Y$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$Y$201</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="824">
   <si>
     <t>csId</t>
   </si>
@@ -2487,13 +2492,19 @@
   </si>
   <si>
     <t>POSTA</t>
+  </si>
+  <si>
+    <t>POSTABALDE DEL SUR DE CHUCUMA</t>
+  </si>
+  <si>
+    <t>POSTA BALDE DE FUNES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2540,7 +2551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2568,6 +2579,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,7 +2667,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2709,6 +2732,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,7 +2810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2803,9 +2842,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2837,6 +2877,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3012,7 +3053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P200"/>
   <sheetViews>
@@ -3020,7 +3061,7 @@
       <selection activeCell="A28" sqref="A28:A192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
@@ -3029,7 +3070,7 @@
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3129,7 +3170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3179,7 +3220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3229,7 +3270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3279,7 +3320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3326,7 +3367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -3376,7 +3417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3426,7 +3467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -3476,7 +3517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3523,7 +3564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3570,7 +3611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3617,7 +3658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3667,7 +3708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -3714,7 +3755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -3764,7 +3805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -3814,7 +3855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -3861,7 +3902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -3911,7 +3952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -3961,7 +4002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -4011,7 +4052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -4058,7 +4099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -4105,7 +4146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
@@ -4155,7 +4196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
@@ -4202,7 +4243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>28</v>
       </c>
@@ -4249,7 +4290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>29</v>
       </c>
@@ -4299,7 +4340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -4346,7 +4387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -4396,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
@@ -4446,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>33</v>
       </c>
@@ -4496,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -4543,7 +4584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -4590,7 +4631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -4640,7 +4681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -4690,7 +4731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -4737,7 +4778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40</v>
       </c>
@@ -4784,7 +4825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -4834,7 +4875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -4884,7 +4925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -4931,7 +4972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -4981,7 +5022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -5028,7 +5069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -5078,7 +5119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -5128,7 +5169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48</v>
       </c>
@@ -5178,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49</v>
       </c>
@@ -5228,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50</v>
       </c>
@@ -5278,7 +5319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>51</v>
       </c>
@@ -5328,7 +5369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52</v>
       </c>
@@ -5375,7 +5416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>53</v>
       </c>
@@ -5425,7 +5466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>54</v>
       </c>
@@ -5475,7 +5516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55</v>
       </c>
@@ -5525,7 +5566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5572,7 +5613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -5622,7 +5663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -5669,7 +5710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -5719,7 +5760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
@@ -5766,7 +5807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
@@ -5816,7 +5857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
@@ -5863,7 +5904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
@@ -5910,7 +5951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -5957,7 +5998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>66</v>
       </c>
@@ -6004,7 +6045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>67</v>
       </c>
@@ -6051,7 +6092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>68</v>
       </c>
@@ -6101,7 +6142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>69</v>
       </c>
@@ -6148,7 +6189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>70</v>
       </c>
@@ -6198,7 +6239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>71</v>
       </c>
@@ -6245,7 +6286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>72</v>
       </c>
@@ -6292,7 +6333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>73</v>
       </c>
@@ -6339,7 +6380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>74</v>
       </c>
@@ -6386,7 +6427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>75</v>
       </c>
@@ -6433,7 +6474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>76</v>
       </c>
@@ -6483,7 +6524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>77</v>
       </c>
@@ -6533,7 +6574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>78</v>
       </c>
@@ -6583,7 +6624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>79</v>
       </c>
@@ -6633,7 +6674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>80</v>
       </c>
@@ -6683,7 +6724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>81</v>
       </c>
@@ -6733,7 +6774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>82</v>
       </c>
@@ -6783,7 +6824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>83</v>
       </c>
@@ -6833,7 +6874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>84</v>
       </c>
@@ -6883,7 +6924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>85</v>
       </c>
@@ -6933,7 +6974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>86</v>
       </c>
@@ -6983,7 +7024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>87</v>
       </c>
@@ -7033,7 +7074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>88</v>
       </c>
@@ -7083,7 +7124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>89</v>
       </c>
@@ -7133,7 +7174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>90</v>
       </c>
@@ -7183,7 +7224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>91</v>
       </c>
@@ -7233,7 +7274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>92</v>
       </c>
@@ -7283,7 +7324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>93</v>
       </c>
@@ -7333,7 +7374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7383,7 +7424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7430,7 +7471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>96</v>
       </c>
@@ -7480,7 +7521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>97</v>
       </c>
@@ -7530,7 +7571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>98</v>
       </c>
@@ -7580,7 +7621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>99</v>
       </c>
@@ -7627,7 +7668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>100</v>
       </c>
@@ -7677,7 +7718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>101</v>
       </c>
@@ -7727,7 +7768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>102</v>
       </c>
@@ -7777,7 +7818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>103</v>
       </c>
@@ -7827,7 +7868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>105</v>
       </c>
@@ -7877,7 +7918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>106</v>
       </c>
@@ -7927,7 +7968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>107</v>
       </c>
@@ -7977,7 +8018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>108</v>
       </c>
@@ -8027,7 +8068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>109</v>
       </c>
@@ -8077,7 +8118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>111</v>
       </c>
@@ -8127,7 +8168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>112</v>
       </c>
@@ -8177,7 +8218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>113</v>
       </c>
@@ -8224,7 +8265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>114</v>
       </c>
@@ -8274,7 +8315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>115</v>
       </c>
@@ -8324,7 +8365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>116</v>
       </c>
@@ -8374,7 +8415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>117</v>
       </c>
@@ -8424,7 +8465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>118</v>
       </c>
@@ -8471,7 +8512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>119</v>
       </c>
@@ -8518,7 +8559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>120</v>
       </c>
@@ -8565,7 +8606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>121</v>
       </c>
@@ -8612,7 +8653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>122</v>
       </c>
@@ -8659,7 +8700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>123</v>
       </c>
@@ -8706,7 +8747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>124</v>
       </c>
@@ -8753,7 +8794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>125</v>
       </c>
@@ -8800,7 +8841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>126</v>
       </c>
@@ -8847,7 +8888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127</v>
       </c>
@@ -8894,7 +8935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>128</v>
       </c>
@@ -8941,7 +8982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>129</v>
       </c>
@@ -8988,7 +9029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>130</v>
       </c>
@@ -9035,7 +9076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>131</v>
       </c>
@@ -9082,7 +9123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>132</v>
       </c>
@@ -9132,7 +9173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>133</v>
       </c>
@@ -9182,7 +9223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>134</v>
       </c>
@@ -9229,7 +9270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>135</v>
       </c>
@@ -9279,7 +9320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>136</v>
       </c>
@@ -9326,7 +9367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>137</v>
       </c>
@@ -9373,7 +9414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>138</v>
       </c>
@@ -9420,7 +9461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>139</v>
       </c>
@@ -9467,7 +9508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>140</v>
       </c>
@@ -9514,7 +9555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>141</v>
       </c>
@@ -9561,7 +9602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>142</v>
       </c>
@@ -9608,7 +9649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>143</v>
       </c>
@@ -9655,7 +9696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>144</v>
       </c>
@@ -9702,7 +9743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>145</v>
       </c>
@@ -9749,7 +9790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>146</v>
       </c>
@@ -9796,7 +9837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>147</v>
       </c>
@@ -9843,7 +9884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>148</v>
       </c>
@@ -9890,7 +9931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>149</v>
       </c>
@@ -9940,7 +9981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>150</v>
       </c>
@@ -9987,7 +10028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>151</v>
       </c>
@@ -10037,7 +10078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>152</v>
       </c>
@@ -10084,7 +10125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>153</v>
       </c>
@@ -10131,7 +10172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>154</v>
       </c>
@@ -10178,7 +10219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>155</v>
       </c>
@@ -10225,7 +10266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>156</v>
       </c>
@@ -10275,7 +10316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>157</v>
       </c>
@@ -10325,7 +10366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>158</v>
       </c>
@@ -10375,7 +10416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>159</v>
       </c>
@@ -10422,7 +10463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>160</v>
       </c>
@@ -10469,7 +10510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>161</v>
       </c>
@@ -10516,7 +10557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>162</v>
       </c>
@@ -10563,7 +10604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>163</v>
       </c>
@@ -10613,7 +10654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>171</v>
       </c>
@@ -10660,7 +10701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>172</v>
       </c>
@@ -10707,7 +10748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>173</v>
       </c>
@@ -10754,7 +10795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>248</v>
       </c>
@@ -10804,7 +10845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>249</v>
       </c>
@@ -10854,7 +10895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>250</v>
       </c>
@@ -10904,7 +10945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>251</v>
       </c>
@@ -10954,7 +10995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>252</v>
       </c>
@@ -11004,7 +11045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>253</v>
       </c>
@@ -11054,7 +11095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>254</v>
       </c>
@@ -11104,7 +11145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>255</v>
       </c>
@@ -11154,7 +11195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>256</v>
       </c>
@@ -11201,7 +11242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>257</v>
       </c>
@@ -11248,7 +11289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>258</v>
       </c>
@@ -11298,7 +11339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>259</v>
       </c>
@@ -11348,7 +11389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>260</v>
       </c>
@@ -11395,7 +11436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>366</v>
       </c>
@@ -11442,7 +11483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>418</v>
       </c>
@@ -11489,7 +11530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>419</v>
       </c>
@@ -11536,7 +11577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>423</v>
       </c>
@@ -11583,7 +11624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>434</v>
       </c>
@@ -11630,7 +11671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>447</v>
       </c>
@@ -11677,7 +11718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>448</v>
       </c>
@@ -11724,7 +11765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>452</v>
       </c>
@@ -11771,7 +11812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>465</v>
       </c>
@@ -11821,7 +11862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>466</v>
       </c>
@@ -11871,7 +11912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>468</v>
       </c>
@@ -11921,7 +11962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>469</v>
       </c>
@@ -11971,7 +12012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>470</v>
       </c>
@@ -12021,7 +12062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>472</v>
       </c>
@@ -12071,7 +12112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>473</v>
       </c>
@@ -12121,7 +12162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>474</v>
       </c>
@@ -12171,7 +12212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>475</v>
       </c>
@@ -12221,7 +12262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>476</v>
       </c>
@@ -12268,7 +12309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>477</v>
       </c>
@@ -12315,7 +12356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>478</v>
       </c>
@@ -12365,7 +12406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>479</v>
       </c>
@@ -12415,7 +12456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>481</v>
       </c>
@@ -12465,7 +12506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>507</v>
       </c>
@@ -12515,7 +12556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>521</v>
       </c>
@@ -12565,7 +12606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>524</v>
       </c>
@@ -12615,7 +12656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>525</v>
       </c>
@@ -12665,7 +12706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>526</v>
       </c>
@@ -12715,7 +12756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>530</v>
       </c>
@@ -12778,16 +12819,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>31</v>
       </c>
@@ -12795,7 +12836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>32</v>
       </c>
@@ -12803,7 +12844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>33</v>
       </c>
@@ -12811,7 +12852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>46</v>
       </c>
@@ -12819,7 +12860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>47</v>
       </c>
@@ -12827,7 +12868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>48</v>
       </c>
@@ -12835,7 +12876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>49</v>
       </c>
@@ -12843,7 +12884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>50</v>
       </c>
@@ -12851,7 +12892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>51</v>
       </c>
@@ -12859,7 +12900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>52</v>
       </c>
@@ -12867,7 +12908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>53</v>
       </c>
@@ -12875,7 +12916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>54</v>
       </c>
@@ -12883,7 +12924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>55</v>
       </c>
@@ -12891,12 +12932,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>76</v>
       </c>
@@ -12904,7 +12945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>113</v>
       </c>
@@ -12912,7 +12953,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>114</v>
       </c>
@@ -12920,7 +12961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>115</v>
       </c>
@@ -12928,7 +12969,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>116</v>
       </c>
@@ -12936,7 +12977,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>117</v>
       </c>
@@ -12944,30 +12985,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24">
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>478</v>
       </c>
@@ -12975,13 +13016,13 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
   </sheetData>
@@ -12993,15 +13034,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
@@ -13015,7 +13056,7 @@
     <col min="16" max="16" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -13090,7 +13131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" hidden="1">
+    <row r="2" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -13161,7 +13202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15">
+    <row r="3" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -13226,7 +13267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" hidden="1">
+    <row r="4" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -13297,7 +13338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" hidden="1">
+    <row r="5" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13371,7 +13412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15" hidden="1">
+    <row r="6" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13442,7 +13483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" hidden="1">
+    <row r="7" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -13513,7 +13554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" hidden="1">
+    <row r="8" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -13581,7 +13622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" hidden="1">
+    <row r="9" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -13652,7 +13693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" hidden="1">
+    <row r="10" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -13720,7 +13761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" hidden="1">
+    <row r="11" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -13785,7 +13826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15" hidden="1">
+    <row r="12" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -13850,7 +13891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15" hidden="1">
+    <row r="13" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -13915,7 +13956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" hidden="1">
+    <row r="14" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -13980,72 +14021,73 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" hidden="1">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15" spans="1:25" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="35">
         <v>256</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="37">
         <v>-3.14873819672657E+16</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="37">
         <v>-6841667175292960</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15">
+      <c r="Q15" s="34">
+        <v>1</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="34">
         <v>9100053</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15" hidden="1">
+      <c r="U15" s="34">
+        <v>0</v>
+      </c>
+      <c r="V15" s="34">
+        <v>0</v>
+      </c>
+      <c r="W15" s="34">
+        <v>0</v>
+      </c>
+      <c r="X15" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -14110,7 +14152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" hidden="1">
+    <row r="17" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -14175,7 +14217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" hidden="1">
+    <row r="18" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -14240,7 +14282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -14314,7 +14356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:25" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1</v>
       </c>
@@ -14385,7 +14427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -14459,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -14533,7 +14575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -14607,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -14681,7 +14723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -14755,7 +14797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -14829,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -14903,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -14977,7 +15019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -15051,7 +15093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -15119,7 +15161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -15193,7 +15235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -15267,7 +15309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -15341,7 +15383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -15415,7 +15457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -15489,7 +15531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -15557,7 +15599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -15631,7 +15673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -15699,7 +15741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -15773,7 +15815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -15847,7 +15889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:25" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -15921,7 +15963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15" hidden="1">
+    <row r="42" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -15995,7 +16037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" hidden="1">
+    <row r="43" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -16066,7 +16108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15" hidden="1">
+    <row r="44" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -16140,7 +16182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" hidden="1">
+    <row r="45" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -16211,7 +16253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" hidden="1">
+    <row r="46" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -16282,7 +16324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" hidden="1">
+    <row r="47" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -16353,7 +16395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" hidden="1">
+    <row r="48" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -16424,7 +16466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" hidden="1">
+    <row r="49" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -16498,7 +16540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15" hidden="1">
+    <row r="50" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -16572,7 +16614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" hidden="1">
+    <row r="51" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -16646,7 +16688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="19" customFormat="1" ht="15">
+    <row r="52" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -16720,7 +16762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="19" customFormat="1" ht="15">
+    <row r="53" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>2</v>
       </c>
@@ -16791,7 +16833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="19" customFormat="1" ht="15">
+    <row r="54" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>2</v>
       </c>
@@ -16865,7 +16907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="19" customFormat="1" ht="15">
+    <row r="55" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>2</v>
       </c>
@@ -16939,7 +16981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="56" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>2</v>
       </c>
@@ -17010,7 +17052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="57" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>2</v>
       </c>
@@ -17084,7 +17126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="58" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>2</v>
       </c>
@@ -17158,7 +17200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15" hidden="1">
+    <row r="59" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -17226,7 +17268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="60" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>2</v>
       </c>
@@ -17297,7 +17339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="61" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>2</v>
       </c>
@@ -17371,7 +17413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="62" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>2</v>
       </c>
@@ -17445,7 +17487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="63" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>2</v>
       </c>
@@ -17516,7 +17558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="64" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>2</v>
       </c>
@@ -17590,7 +17632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="65" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>2</v>
       </c>
@@ -17661,7 +17703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="19" customFormat="1" ht="15" hidden="1">
+    <row r="66" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>2</v>
       </c>
@@ -17735,7 +17777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15" hidden="1">
+    <row r="67" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>2</v>
       </c>
@@ -17804,735 +17846,735 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15" hidden="1">
-      <c r="A68">
+    <row r="68" spans="1:25" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
         <v>2</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="35">
         <v>479</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="34">
         <v>119</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="34" t="s">
         <v>800</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="36" t="s">
         <v>794</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P68" s="1" t="s">
+      <c r="K68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-      <c r="R68">
+      <c r="Q68" s="34">
+        <v>1</v>
+      </c>
+      <c r="R68" s="34">
         <v>2</v>
       </c>
-      <c r="S68" t="s">
-        <v>19</v>
-      </c>
-      <c r="T68">
+      <c r="S68" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="T68" s="34">
         <v>4936</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="34">
         <v>119</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="34">
         <v>257</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="34">
         <v>261</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="34">
         <v>518</v>
       </c>
-      <c r="Y68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="15" hidden="1">
-      <c r="A69">
+      <c r="Y68" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
         <v>2</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="20">
         <v>111</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="19">
         <v>635</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="22">
         <v>-3.14863572657167E+16</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N69" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="22">
         <v>-683243179321289</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P69" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69">
+      <c r="Q69" s="19">
+        <v>1</v>
+      </c>
+      <c r="R69" s="19">
         <v>2</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="19">
         <v>9100037</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="19">
         <v>4937</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="19">
         <v>635</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="19">
         <v>1216</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="19">
         <v>1157</v>
       </c>
-      <c r="X69">
+      <c r="X69" s="19">
         <v>2373</v>
       </c>
-      <c r="Y69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" ht="15" hidden="1">
-      <c r="A70">
+      <c r="Y69" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="19">
         <v>2</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="20">
         <v>112</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="19">
         <v>329</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="22">
         <v>-31558410</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O70" s="2">
+      <c r="O70" s="22">
         <v>-68300675</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="P70" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70">
+      <c r="Q70" s="19">
+        <v>1</v>
+      </c>
+      <c r="R70" s="19">
         <v>2</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="19">
         <v>9100029</v>
       </c>
-      <c r="T70">
+      <c r="T70" s="19">
         <v>10298</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="19">
         <v>329</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="19">
         <v>583</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="19">
         <v>562</v>
       </c>
-      <c r="X70">
+      <c r="X70" s="19">
         <v>1145</v>
       </c>
-      <c r="Y70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="15" hidden="1">
-      <c r="A71">
+      <c r="Y70" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
         <v>2</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="20">
         <v>253</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="19">
         <v>1186</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="22">
         <v>-3.15504526754714E+16</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="22">
         <v>-6830483436584470</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71">
+      <c r="Q71" s="19">
+        <v>1</v>
+      </c>
+      <c r="R71" s="19">
         <v>2</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="19">
         <v>9100045</v>
       </c>
-      <c r="T71">
+      <c r="T71" s="19">
         <v>10296</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="19">
         <v>1186</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="19">
         <v>2369</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="19">
         <v>2375</v>
       </c>
-      <c r="X71">
+      <c r="X71" s="19">
         <v>4744</v>
       </c>
-      <c r="Y71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="15" hidden="1">
-      <c r="A72">
+      <c r="Y71" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
         <v>2</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="20">
         <v>15</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="19">
         <v>940</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="22">
         <v>-31517437</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72" s="20">
         <v>4971267</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="22">
         <v>-68350531</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="P72" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72">
+      <c r="Q72" s="19">
+        <v>1</v>
+      </c>
+      <c r="R72" s="19">
         <v>2</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="19">
         <v>9100011</v>
       </c>
-      <c r="T72">
+      <c r="T72" s="19">
         <v>3296</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="19">
         <v>940</v>
       </c>
-      <c r="V72">
+      <c r="V72" s="19">
         <v>1632</v>
       </c>
-      <c r="W72">
+      <c r="W72" s="19">
         <v>1589</v>
       </c>
-      <c r="X72">
+      <c r="X72" s="19">
         <v>3221</v>
       </c>
-      <c r="Y72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="15" hidden="1">
-      <c r="A73">
+      <c r="Y72" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19">
         <v>2</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="20">
         <v>134</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="19">
         <v>40</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="22">
         <v>-3059891181819190</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N73" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="22">
         <v>-6748077392578120</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="P73" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
+      <c r="Q73" s="19">
+        <v>1</v>
+      </c>
+      <c r="R73" s="19">
         <v>2</v>
       </c>
-      <c r="S73" t="s">
-        <v>19</v>
-      </c>
-      <c r="U73">
+      <c r="S73" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U73" s="19">
         <v>40</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="19">
         <v>31</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="19">
         <v>25</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="19">
         <v>56</v>
       </c>
-      <c r="Y73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="15" hidden="1">
-      <c r="A74">
+      <c r="Y73" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19">
         <v>2</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="20">
         <v>135</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="19">
         <v>254</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="22">
         <v>-309539</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N74" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="22">
         <v>-673039</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="P74" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="R74">
+      <c r="Q74" s="19">
+        <v>1</v>
+      </c>
+      <c r="R74" s="19">
         <v>2</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="19">
         <v>11900016</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="19">
         <v>4941</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="19">
         <v>254</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="19">
         <v>371</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="19">
         <v>356</v>
       </c>
-      <c r="X74">
+      <c r="X74" s="19">
         <v>727</v>
       </c>
-      <c r="Y74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="15" hidden="1">
-      <c r="A75">
+      <c r="Y74" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19">
         <v>2</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="20">
         <v>136</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="19">
         <v>59</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="22">
         <v>-309336</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="22">
         <v>-672502</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="P75" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75">
+      <c r="Q75" s="19">
+        <v>1</v>
+      </c>
+      <c r="R75" s="19">
         <v>2</v>
       </c>
-      <c r="S75" t="s">
-        <v>19</v>
-      </c>
-      <c r="U75">
+      <c r="S75" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U75" s="19">
         <v>59</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="19">
         <v>79</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="19">
         <v>55</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="19">
         <v>134</v>
       </c>
-      <c r="Y75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="15" hidden="1">
-      <c r="A76">
+      <c r="Y75" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
         <v>2</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="20">
         <v>137</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="19">
         <v>17</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="K76" s="22">
+        <v>-3.06544528244007E+16</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M76" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="N76" s="20">
+        <v>0</v>
+      </c>
+      <c r="O76" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="P76" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>1</v>
+      </c>
+      <c r="R76" s="19">
+        <v>2</v>
+      </c>
+      <c r="S76" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U76" s="19">
+        <v>17</v>
+      </c>
+      <c r="V76" s="19">
+        <v>31</v>
+      </c>
+      <c r="W76" s="19">
+        <v>19</v>
+      </c>
+      <c r="X76" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y76" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
+        <v>2</v>
+      </c>
+      <c r="B77" s="20">
+        <v>138</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="D77" s="19">
+        <v>154</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H77" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I76" t="s">
-        <v>385</v>
-      </c>
-      <c r="K76" s="2">
-        <v>-3.06544528244007E+16</v>
-      </c>
-      <c r="L76" s="1" t="s">
+      <c r="I77" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="K77" s="22">
+        <v>-306425</v>
+      </c>
+      <c r="L77" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M77" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N76" s="1">
-        <v>0</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76">
+      <c r="N77" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O77" s="22">
+        <v>-674022</v>
+      </c>
+      <c r="P77" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q77" s="19">
+        <v>1</v>
+      </c>
+      <c r="R77" s="19">
         <v>2</v>
       </c>
-      <c r="S76" t="s">
-        <v>19</v>
-      </c>
-      <c r="U76">
-        <v>17</v>
-      </c>
-      <c r="V76">
-        <v>31</v>
-      </c>
-      <c r="W76">
-        <v>19</v>
-      </c>
-      <c r="X76">
-        <v>50</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="15" hidden="1">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" s="1">
-        <v>138</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="D77">
+      <c r="S77" s="19">
+        <v>11900156</v>
+      </c>
+      <c r="U77" s="19">
         <v>154</v>
       </c>
-      <c r="E77" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="H77" t="s">
-        <v>581</v>
-      </c>
-      <c r="I77" t="s">
-        <v>388</v>
-      </c>
-      <c r="K77" s="2">
-        <v>-306425</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O77" s="2">
-        <v>-674022</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77">
-        <v>11900156</v>
-      </c>
-      <c r="U77">
-        <v>154</v>
-      </c>
-      <c r="V77">
+      <c r="V77" s="19">
         <v>190</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="19">
         <v>166</v>
       </c>
-      <c r="X77">
+      <c r="X77" s="19">
         <v>356</v>
       </c>
-      <c r="Y77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15" hidden="1">
+      <c r="Y77" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -18603,78 +18645,78 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15" hidden="1">
-      <c r="A79">
+    <row r="79" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19">
         <v>2</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="20">
         <v>140</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="19">
         <v>16</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="H79" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I79" t="s">
-        <v>393</v>
-      </c>
-      <c r="K79" s="2">
+      <c r="I79" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="K79" s="22">
         <v>-3110233357287170</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N79" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="22">
         <v>-6729537963867180</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P79" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
-      <c r="R79">
+      <c r="Q79" s="19">
+        <v>1</v>
+      </c>
+      <c r="R79" s="19">
         <v>2</v>
       </c>
-      <c r="S79" t="s">
-        <v>19</v>
-      </c>
-      <c r="U79">
+      <c r="S79" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U79" s="19">
         <v>16</v>
       </c>
-      <c r="V79">
+      <c r="V79" s="19">
         <v>27</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="19">
         <v>23</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="19">
         <v>50</v>
       </c>
-      <c r="Y79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="15" hidden="1">
+      <c r="Y79" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -18745,504 +18787,504 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15" hidden="1">
-      <c r="A81">
+    <row r="81" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
         <v>2</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="20">
         <v>142</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="19">
         <v>45</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="22">
         <v>-310711</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N81" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="22">
         <v>-672766</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="P81" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81">
+      <c r="Q81" s="19">
+        <v>1</v>
+      </c>
+      <c r="R81" s="19">
         <v>2</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="19">
         <v>11900067</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="19">
         <v>45</v>
       </c>
-      <c r="V81">
+      <c r="V81" s="19">
         <v>105</v>
       </c>
-      <c r="W81">
+      <c r="W81" s="19">
         <v>98</v>
       </c>
-      <c r="X81">
+      <c r="X81" s="19">
         <v>203</v>
       </c>
-      <c r="Y81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" ht="15" hidden="1">
-      <c r="A82">
+      <c r="Y81" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19">
         <v>2</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="20">
         <v>143</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="19">
         <v>58</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="22">
         <v>-3.03607301197825E+16</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="N82" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="22">
         <v>-6765689849853510</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="P82" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="R82">
+      <c r="Q82" s="19">
+        <v>1</v>
+      </c>
+      <c r="R82" s="19">
         <v>2</v>
       </c>
-      <c r="S82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U82">
+      <c r="S82" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U82" s="19">
         <v>58</v>
       </c>
-      <c r="V82">
+      <c r="V82" s="19">
         <v>102</v>
       </c>
-      <c r="W82">
+      <c r="W82" s="19">
         <v>81</v>
       </c>
-      <c r="X82">
+      <c r="X82" s="19">
         <v>183</v>
       </c>
-      <c r="Y82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="15" hidden="1">
-      <c r="A83">
+      <c r="Y82" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
         <v>2</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="20">
         <v>144</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="19">
         <v>12</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="22">
         <v>-3.0702877445958E+16</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="N83" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="22">
         <v>-6741622924804680</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="P83" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="R83">
+      <c r="Q83" s="19">
+        <v>1</v>
+      </c>
+      <c r="R83" s="19">
         <v>2</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="19">
         <v>11900105</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="19">
         <v>12</v>
       </c>
-      <c r="V83">
-        <v>19</v>
-      </c>
-      <c r="W83">
+      <c r="V83" s="19">
+        <v>19</v>
+      </c>
+      <c r="W83" s="19">
         <v>11</v>
       </c>
-      <c r="X83">
+      <c r="X83" s="19">
         <v>30</v>
       </c>
-      <c r="Y83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" ht="15" hidden="1">
-      <c r="A84">
+      <c r="Y83" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
         <v>2</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="31">
         <v>145</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="30">
         <v>45</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="32" t="s">
         <v>796</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="33">
         <v>-3.04403860865663E+16</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N84" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="33">
         <v>-6754806518554680</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="P84" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="R84">
+      <c r="Q84" s="30">
+        <v>1</v>
+      </c>
+      <c r="R84" s="30">
         <v>2</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="30">
         <v>11900032</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="30">
         <v>45</v>
       </c>
-      <c r="V84">
+      <c r="V84" s="30">
         <v>62</v>
       </c>
-      <c r="W84">
+      <c r="W84" s="30">
         <v>65</v>
       </c>
-      <c r="X84">
+      <c r="X84" s="30">
         <v>127</v>
       </c>
-      <c r="Y84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="15" hidden="1">
-      <c r="A85">
+      <c r="Y84" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="30">
         <v>2</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="31">
         <v>146</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="30">
         <v>14</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="32" t="s">
         <v>796</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="33">
         <v>-3.0426177145763E+16</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="N85" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="33">
         <v>-6758514404296870</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="P85" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="Q85">
-        <v>1</v>
-      </c>
-      <c r="R85">
+      <c r="Q85" s="30">
+        <v>1</v>
+      </c>
+      <c r="R85" s="30">
         <v>2</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="30">
         <v>11900121</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="30">
         <v>14</v>
       </c>
-      <c r="V85">
+      <c r="V85" s="30">
         <v>28</v>
       </c>
-      <c r="W85">
+      <c r="W85" s="30">
         <v>27</v>
       </c>
-      <c r="X85">
+      <c r="X85" s="30">
         <v>55</v>
       </c>
-      <c r="Y85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="15" hidden="1">
-      <c r="A86">
+      <c r="Y85" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30">
         <v>2</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="31">
         <v>147</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="30">
         <v>28</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="32" t="s">
         <v>796</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="33">
         <v>-3037405999207120</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="N86" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O86" s="2">
+      <c r="O86" s="33">
         <v>-676153564453125</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="P86" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
+      <c r="Q86" s="30">
+        <v>1</v>
+      </c>
+      <c r="R86" s="30">
         <v>2</v>
       </c>
-      <c r="S86" t="s">
-        <v>19</v>
-      </c>
-      <c r="U86">
+      <c r="S86" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U86" s="30">
         <v>28</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="30">
         <v>9</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="30">
         <v>11</v>
       </c>
-      <c r="X86">
+      <c r="X86" s="30">
         <v>20</v>
       </c>
-      <c r="Y86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" ht="15" hidden="1">
-      <c r="A87">
+      <c r="Y86" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
         <v>2</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="20">
         <v>148</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="19">
         <v>125</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="22">
         <v>-305661</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L87" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="N87" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="O87" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="P87" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="R87">
+      <c r="Q87" s="19">
+        <v>1</v>
+      </c>
+      <c r="R87" s="19">
         <v>2</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="19">
         <v>11900075</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="19">
         <v>125</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="19">
         <v>193</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="19">
         <v>178</v>
       </c>
-      <c r="X87">
+      <c r="X87" s="19">
         <v>371</v>
       </c>
-      <c r="Y87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" ht="15" hidden="1">
+      <c r="Y87" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -19316,7 +19358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15" hidden="1">
+    <row r="89" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -19390,7 +19432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15" hidden="1">
+    <row r="90" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -19464,7 +19506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15" hidden="1">
+    <row r="91" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -19538,7 +19580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" hidden="1">
+    <row r="92" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -19609,7 +19651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" hidden="1">
+    <row r="93" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -19683,7 +19725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="15" hidden="1">
+    <row r="94" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -19757,7 +19799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15" hidden="1">
+    <row r="95" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -19831,7 +19873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15" hidden="1">
+    <row r="96" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -19902,7 +19944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15" hidden="1">
+    <row r="97" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -19976,7 +20018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="15" hidden="1">
+    <row r="98" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -20047,7 +20089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="15" hidden="1">
+    <row r="99" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -20121,7 +20163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15" hidden="1">
+    <row r="100" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -20192,7 +20234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15" hidden="1">
+    <row r="101" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -20266,7 +20308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15" hidden="1">
+    <row r="102" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -20340,7 +20382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="15" hidden="1">
+    <row r="103" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -20408,7 +20450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15" hidden="1">
+    <row r="104" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -20476,7 +20518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15" hidden="1">
+    <row r="105" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -20544,7 +20586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15" hidden="1">
+    <row r="106" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -20615,7 +20657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="15" hidden="1">
+    <row r="107" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -20686,7 +20728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="15" hidden="1">
+    <row r="108" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -20760,7 +20802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15" hidden="1">
+    <row r="109" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -20828,7 +20870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" hidden="1">
+    <row r="110" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -20902,7 +20944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15" hidden="1">
+    <row r="111" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -20973,7 +21015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15" hidden="1">
+    <row r="112" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -21044,7 +21086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15" hidden="1">
+    <row r="113" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -21115,7 +21157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="15" hidden="1">
+    <row r="114" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -21183,7 +21225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15" hidden="1">
+    <row r="115" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -21254,7 +21296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="15" hidden="1">
+    <row r="116" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -21328,7 +21370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="15" hidden="1">
+    <row r="117" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -21399,7 +21441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15" hidden="1">
+    <row r="118" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -21470,7 +21512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15" hidden="1">
+    <row r="119" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -21541,7 +21583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="15" hidden="1">
+    <row r="120" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -21615,7 +21657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15" hidden="1">
+    <row r="121" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -21686,7 +21728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="15" hidden="1">
+    <row r="122" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -21760,7 +21802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15" hidden="1">
+    <row r="123" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -21834,7 +21876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15" hidden="1">
+    <row r="124" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -21905,7 +21947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15" hidden="1">
+    <row r="125" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -21976,7 +22018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15" hidden="1">
+    <row r="126" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -22044,7 +22086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15" hidden="1">
+    <row r="127" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -22118,7 +22160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15" hidden="1">
+    <row r="128" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -22192,7 +22234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15" hidden="1">
+    <row r="129" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -22266,7 +22308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15" hidden="1">
+    <row r="130" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -22340,7 +22382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15" hidden="1">
+    <row r="131" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -22414,7 +22456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15" hidden="1">
+    <row r="132" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -22488,7 +22530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15" hidden="1">
+    <row r="133" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -22562,7 +22604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15" hidden="1">
+    <row r="134" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -22636,7 +22678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15" hidden="1">
+    <row r="135" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -22710,7 +22752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15" hidden="1">
+    <row r="136" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -22784,7 +22826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15" hidden="1">
+    <row r="137" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -22855,7 +22897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15" hidden="1">
+    <row r="138" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -22926,7 +22968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15" hidden="1">
+    <row r="139" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -23000,7 +23042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15" hidden="1">
+    <row r="140" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -23074,7 +23116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15" hidden="1">
+    <row r="141" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -23148,7 +23190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15" hidden="1">
+    <row r="142" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -23222,7 +23264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15" hidden="1">
+    <row r="143" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -23296,7 +23338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15" hidden="1">
+    <row r="144" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -23370,7 +23412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15" hidden="1">
+    <row r="145" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -23444,7 +23486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15" hidden="1">
+    <row r="146" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -23518,7 +23560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15" hidden="1">
+    <row r="147" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -23592,7 +23634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15" hidden="1">
+    <row r="148" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -23666,7 +23708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="15" hidden="1">
+    <row r="149" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -23740,7 +23782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15" hidden="1">
+    <row r="150" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -23814,7 +23856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15" hidden="1">
+    <row r="151" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -23888,7 +23930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15" hidden="1">
+    <row r="152" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5</v>
       </c>
@@ -23962,7 +24004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15" hidden="1">
+    <row r="153" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5</v>
       </c>
@@ -24036,7 +24078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="15" hidden="1">
+    <row r="154" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5</v>
       </c>
@@ -24107,7 +24149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="15" hidden="1">
+    <row r="155" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -24181,7 +24223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="15" hidden="1">
+    <row r="156" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
@@ -24255,7 +24297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="15" hidden="1">
+    <row r="157" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5</v>
       </c>
@@ -24329,7 +24371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="15" hidden="1">
+    <row r="158" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5</v>
       </c>
@@ -24403,7 +24445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="15" hidden="1">
+    <row r="159" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5</v>
       </c>
@@ -24477,7 +24519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="15" hidden="1">
+    <row r="160" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5</v>
       </c>
@@ -24551,7 +24593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="15" hidden="1">
+    <row r="161" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5</v>
       </c>
@@ -24625,7 +24667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="15" hidden="1">
+    <row r="162" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -24699,7 +24741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="15" hidden="1">
+    <row r="163" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -24773,7 +24815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="15" hidden="1">
+    <row r="164" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -24841,7 +24883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="15" hidden="1">
+    <row r="165" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5</v>
       </c>
@@ -24915,7 +24957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="15" hidden="1">
+    <row r="166" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
@@ -24989,7 +25031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="15" hidden="1">
+    <row r="167" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>5</v>
       </c>
@@ -25063,7 +25105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="15" hidden="1">
+    <row r="168" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -25134,7 +25176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="15" hidden="1">
+    <row r="169" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -25205,7 +25247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="15" hidden="1">
+    <row r="170" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -25276,7 +25318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="15" hidden="1">
+    <row r="171" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -25344,7 +25386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="15" hidden="1">
+    <row r="172" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5</v>
       </c>
@@ -25415,7 +25457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="15" hidden="1">
+    <row r="173" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -25486,7 +25528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="15" hidden="1">
+    <row r="174" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -25557,7 +25599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="15" hidden="1">
+    <row r="175" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5</v>
       </c>
@@ -25628,7 +25670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="15" hidden="1">
+    <row r="176" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5</v>
       </c>
@@ -25699,7 +25741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="15" hidden="1">
+    <row r="177" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -25770,7 +25812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="15" hidden="1">
+    <row r="178" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -25841,7 +25883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="15" hidden="1">
+    <row r="179" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5</v>
       </c>
@@ -25912,7 +25954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="15" hidden="1">
+    <row r="180" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -25983,7 +26025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="15" hidden="1">
+    <row r="181" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5</v>
       </c>
@@ -26054,7 +26096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="15" hidden="1">
+    <row r="182" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -26125,7 +26167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="15" hidden="1">
+    <row r="183" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5</v>
       </c>
@@ -26196,7 +26238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="15" hidden="1">
+    <row r="184" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5</v>
       </c>
@@ -26270,7 +26312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="15" hidden="1">
+    <row r="185" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -26338,7 +26380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="15" hidden="1">
+    <row r="186" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
@@ -26409,7 +26451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="15" hidden="1">
+    <row r="187" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -26480,7 +26522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="15" hidden="1">
+    <row r="188" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9</v>
       </c>
@@ -26554,7 +26596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="15" hidden="1">
+    <row r="189" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9</v>
       </c>
@@ -26628,7 +26670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="15" hidden="1">
+    <row r="190" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -26699,7 +26741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="15" hidden="1">
+    <row r="191" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9</v>
       </c>
@@ -26770,7 +26812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="15" hidden="1">
+    <row r="192" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9</v>
       </c>
@@ -26844,7 +26886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="15" hidden="1">
+    <row r="193" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -26918,7 +26960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="15" hidden="1">
+    <row r="194" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -26992,7 +27034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="15" hidden="1">
+    <row r="195" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9</v>
       </c>
@@ -27066,7 +27108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="15" hidden="1">
+    <row r="196" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
@@ -27140,7 +27182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="15" hidden="1">
+    <row r="197" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9</v>
       </c>
@@ -27211,7 +27253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="15" hidden="1">
+    <row r="198" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -27285,7 +27327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="15" hidden="1">
+    <row r="199" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -27356,7 +27398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="15" hidden="1">
+    <row r="200" spans="1:25" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10</v>
       </c>
@@ -27424,7 +27466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:25" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="201" spans="1:25" s="18" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="28"/>
       <c r="C201" s="29"/>
       <c r="F201" s="29"/>
@@ -27445,10 +27487,10 @@
       <c r="P201" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y200">
+  <autoFilter ref="A1:Y201">
     <filterColumn colId="7">
       <filters>
-        <filter val="Angaco"/>
+        <filter val="San Martin"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -27458,14 +27500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
@@ -27473,7 +27515,7 @@
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>807</v>
       </c>
@@ -27514,7 +27556,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>378</v>
       </c>
@@ -27549,7 +27591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>663</v>
       </c>
@@ -27591,7 +27633,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>662</v>
       </c>
